--- a/260127.xlsx
+++ b/260127.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="203">
   <si>
     <t>member 테이블</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -600,6 +602,242 @@
   </si>
   <si>
     <t>강의 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문번호 -&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer_addr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전 동구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전 중구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>떡볶이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전 유성구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제육</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 학생은 여러 강의를 수강할 수 있다. 한 강의에는 여러 학생이 수강한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 회원은 여러주문을 할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 주문은 한 회원에 의해 생성된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 주문에는 여러 상품이 포함 될 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 상품은 여러 주문에 포함 될 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 하나에 여러장의 이미지 게시 가능하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나의 이미지는 하나의 게시글에 사용가능하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patient_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patient_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doctor_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doctor_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dept_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qtys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김철수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이영희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박의사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최의사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정형외과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이레놀, 오메가3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 제 1정규화, 제 2정규화 적용하여 테이블 설계하세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 각 테이블간의 관계에 대해서 표기하세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오메가3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이레놀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dept_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -633,7 +871,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -655,6 +893,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,7 +941,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -727,6 +977,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1011,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2310,8 +2578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S34"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2761,4 +3029,838 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C4" s="11">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11">
+        <v>100</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="11">
+        <v>10</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="I4" s="11">
+        <v>2</v>
+      </c>
+      <c r="J4" s="12">
+        <v>46037</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="11">
+        <v>2</v>
+      </c>
+      <c r="D5" s="11">
+        <v>200</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5" s="11">
+        <v>20</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="I5" s="11">
+        <v>2</v>
+      </c>
+      <c r="J5" s="12">
+        <v>46038</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C6" s="11">
+        <v>3</v>
+      </c>
+      <c r="D6" s="11">
+        <v>300</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="G6" s="11">
+        <v>10</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="I6" s="11">
+        <v>1</v>
+      </c>
+      <c r="J6" s="12">
+        <v>46040</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="11">
+        <v>4</v>
+      </c>
+      <c r="D7" s="11">
+        <v>300</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="G7" s="11">
+        <v>30</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="I7" s="11">
+        <v>3</v>
+      </c>
+      <c r="J7" s="12">
+        <v>46040</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C8" s="11">
+        <v>5</v>
+      </c>
+      <c r="D8" s="11">
+        <v>500</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" s="11">
+        <v>80</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="I8" s="11">
+        <v>2</v>
+      </c>
+      <c r="J8" s="12">
+        <v>46046</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="11">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11">
+        <v>100</v>
+      </c>
+      <c r="E13" s="11">
+        <v>10</v>
+      </c>
+      <c r="F13" s="11">
+        <v>2</v>
+      </c>
+      <c r="G13" s="12">
+        <v>46037</v>
+      </c>
+      <c r="H13" s="11">
+        <v>100</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C14" s="11">
+        <v>2</v>
+      </c>
+      <c r="D14" s="11">
+        <v>200</v>
+      </c>
+      <c r="E14" s="11">
+        <v>20</v>
+      </c>
+      <c r="F14" s="11">
+        <v>2</v>
+      </c>
+      <c r="G14" s="12">
+        <v>46038</v>
+      </c>
+      <c r="H14" s="11">
+        <v>200</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C15" s="11">
+        <v>3</v>
+      </c>
+      <c r="D15" s="11">
+        <v>300</v>
+      </c>
+      <c r="E15" s="11">
+        <v>10</v>
+      </c>
+      <c r="F15" s="11">
+        <v>1</v>
+      </c>
+      <c r="G15" s="12">
+        <v>46040</v>
+      </c>
+      <c r="H15" s="11">
+        <v>300</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C16" s="11">
+        <v>4</v>
+      </c>
+      <c r="D16" s="11">
+        <v>300</v>
+      </c>
+      <c r="E16" s="11">
+        <v>30</v>
+      </c>
+      <c r="F16" s="11">
+        <v>3</v>
+      </c>
+      <c r="G16" s="12">
+        <v>46040</v>
+      </c>
+      <c r="H16" s="11">
+        <v>500</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C17" s="11">
+        <v>5</v>
+      </c>
+      <c r="D17" s="11">
+        <v>500</v>
+      </c>
+      <c r="E17" s="11">
+        <v>80</v>
+      </c>
+      <c r="F17" s="11">
+        <v>2</v>
+      </c>
+      <c r="G17" s="12">
+        <v>46046</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H20" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H21" s="11">
+        <v>10</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H22" s="11">
+        <v>20</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H23" s="11">
+        <v>30</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H24" s="11">
+        <v>80</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>161</v>
+      </c>
+      <c r="C30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>165</v>
+      </c>
+      <c r="C40" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>170</v>
+      </c>
+      <c r="C47" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>172</v>
+      </c>
+      <c r="C52" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>46052</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
+        <v>46052</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I4" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6">
+        <v>46052</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="K11" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>2</v>
+      </c>
+      <c r="B12" s="6">
+        <v>46052</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="K12" s="17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>3</v>
+      </c>
+      <c r="B13" s="6">
+        <v>46052</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="K13" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>